--- a/medicine/Psychotrope/Fête_de_la_bière/Fête_de_la_bière.xlsx
+++ b/medicine/Psychotrope/Fête_de_la_bière/Fête_de_la_bière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAte_de_la_bi%C3%A8re</t>
+          <t>Fête_de_la_bière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fête de la bière ou un festival de la bière est un évènement festif lié à la bière durant lequel un large choix de marques ou de types de bière est proposé à la simple dégustation ou à la consommation sérieuse. On y trouve également l'occasion de se restaurer, mais aussi de participer à des jeux ou d'assister à des concerts de musique. Ce type de fête peut être limité à une animation villageoise ou au contraire devenir le lieu de rassemblement le plus populaire au monde, comme l'Oktoberfest.
 Les Anglo-Saxons emploient également le terme de Beer Exhibition ou Beerex, bien que celui-ci désigne plus une exposition artisanale mettant l'accent sur les variétés de brasseries ou de bières et n'ayant que peu d'animations récréatives.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAte_de_la_bi%C3%A8re</t>
+          <t>Fête_de_la_bière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,19 +524,89 @@
           <t>Amérique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brésil : Oktoberfest à Blumenau ; Brazilian Beer Festival (en)
 Argentine : Oktoberfest à Villa General Belgrano
 Chili : Bierfest à Valdivia et Llanquihue
 Costa Rica : Fiestas de Palmares à Palmares (es)
-Venezuela : Oktoberfest à Colonia Tovar
-Canada
-Kitchener-Waterloo Oktoberfest (en) à Kitchener—Waterloo
+Venezuela : Oktoberfest à Colonia Tovar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kitchener-Waterloo Oktoberfest (en) à Kitchener—Waterloo
 Toronto's Festival of Beer (en), Lauder Beer Festival et Golden Tap Awards (en) à Toronto
-Ontario Craft Beer Week en Ontario
-États-Unis
-Great American Beer Festival (en) à Denver, Colorado
+Ontario Craft Beer Week en Ontario</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Great American Beer Festival (en) à Denver, Colorado
 Oktoberfest Zinzinnati (en) et Cincinnati Beer Fest à Cincinnati
 Great World Beer Festival (en) à New York
 Oregon Brewers Festival (en) à Portland
@@ -532,34 +614,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>F%C3%AAte_de_la_bi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Allemagne
-En Bavière, toutes les villes de taille moyenne ont leur fête de la bière. Le Land compte en effet en 2008, 621 brasseries[1]. La Franconie, en rassemblant à elle seule plus de 300, est un cas extrême et la plupart des villages ont leur fête de la bière[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En Bavière, toutes les villes de taille moyenne ont leur fête de la bière. Le Land compte en effet en 2008, 621 brasseries. La Franconie, en rassemblant à elle seule plus de 300, est un cas extrême et la plupart des villages ont leur fête de la bière.
 Oktoberfest à Munich
 Cannstatter Volksfest à Stuttgart
 Cranger Kirmes à Herne
@@ -567,60 +654,317 @@
 Bergkirchweih à Erlangen
 Hanover Schützenfest (en) à Hanovre
 Freimarkt à Brême
-Hamburger Dom à Hambourg.
-Royaume-Uni
-Great British Beer Festival (GBBF) à Londres, souvent qualifié de « plus grand pub du monde » et London Oktoberfest (Finsbury Park et Millwall Park)[3]
+Hamburger Dom à Hambourg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Great British Beer Festival (GBBF) à Londres, souvent qualifié de « plus grand pub du monde » et London Oktoberfest (Finsbury Park et Millwall Park)
 National Winter Ales Festival (en) (NWAF) à Manchester, Glasgow et Burton upon Trent
 Farnham Beer Exhibition (en) à Farnham dans le Surrey
-Cambridge Beer Festival (en) à Cambridge
-France
-Les fêtes de la bière sont surtout présentes dans les régions Grand Est et Hauts-de-France, la bière étant la boisson alcoolisée typique de ces régions contrairement aux autres régions françaises plus orientées vers le vin. 
-Grand Est
-« Fête de la bière » à Charleville-Mézières, la plus grande fête de la bière de France avec 130 bières à la pression et une cinquantaine en bouteille. La manifestation rassemble plus de 50 000 visiteurs sur trois jours[4].
-« Arden Brew Fest », festival de la bière artisanale à Haybes dans les Ardennes[5].
-Décibulles à Neuve-Église, fête de la bière couplée à un festival de musique.
-Hauts-de-France
-« Bière à Lille » à Lille est un festival se déroulant sur une semaine en octobre et proposant une soixantaine d'événements liés à la bière artisanale[6].
-« Festival international de la bière artisanale » à Sainte-Marie-Cappel dans le département du Nord chaque année en septembre et réunissant 20 000 visiteurs sur deux jours[7].
-Bretagne
-« Fête de la bière » à Tréguier dans les Côtes d'Armor[8].
-Sud Ouest
-« BLIB » à Bordeaux est un festival se déroulant sur une semaine en avril dans des bars et restaurants et tout un week-end un regroupement d'une  soixantaine de brasseries locales et régionales avec un concours de brassage amateur.
-Autres pays
-Estonie : Õllesummer (en) à Tallinn.
-Pologne : Festival de la bonne bière (Festiwal Dobrego Piwa) à Wrocław[9].
+Cambridge Beer Festival (en) à Cambridge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fêtes de la bière sont surtout présentes dans les régions Grand Est et Hauts-de-France, la bière étant la boisson alcoolisée typique de ces régions contrairement aux autres régions françaises plus orientées vers le vin. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>« Fête de la bière » à Charleville-Mézières, la plus grande fête de la bière de France avec 130 bières à la pression et une cinquantaine en bouteille. La manifestation rassemble plus de 50 000 visiteurs sur trois jours.
+« Arden Brew Fest », festival de la bière artisanale à Haybes dans les Ardennes.
+Décibulles à Neuve-Église, fête de la bière couplée à un festival de musique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>« Bière à Lille » à Lille est un festival se déroulant sur une semaine en octobre et proposant une soixantaine d'événements liés à la bière artisanale.
+« Festival international de la bière artisanale » à Sainte-Marie-Cappel dans le département du Nord chaque année en septembre et réunissant 20 000 visiteurs sur deux jours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>« Fête de la bière » à Tréguier dans les Côtes d'Armor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sud Ouest</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>« BLIB » à Bordeaux est un festival se déroulant sur une semaine en avril dans des bars et restaurants et tout un week-end un regroupement d'une  soixantaine de brasseries locales et régionales avec un concours de brassage amateur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Estonie : Õllesummer (en) à Tallinn.
+Pologne : Festival de la bonne bière (Festiwal Dobrego Piwa) à Wrocław.
 Serbie : Festival de la bière de Belgrade à Belgrade.
-Suisse : Festibière de Genève à Carouge (GE) depuis 2017[10]. Il existe aussi une croisière dédiée à l'Okotberfest avec la Compagnie générale de navigation sur le lac Léman (CGN) à Genève [11] et à Lausanne[12]. On peut également citer la Festi’Piousse à Échallens (VD) qui est un festival de la bière artisanale ainsi que la Lausanne Beer Celebration (VD)[13].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>F%C3%AAte_de_la_bi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Suisse : Festibière de Genève à Carouge (GE) depuis 2017. Il existe aussi une croisière dédiée à l'Okotberfest avec la Compagnie générale de navigation sur le lac Léman (CGN) à Genève  et à Lausanne. On peut également citer la Festi’Piousse à Échallens (VD) qui est un festival de la bière artisanale ainsi que la Lausanne Beer Celebration (VD).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fête_de_la_bière</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_de_la_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Océanie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Australie : Oktoberfest à Perth, Adélaïde, Melbourne, Sydney[14] ; Schützenfest (en) à Adélaïde</t>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Australie : Oktoberfest à Perth, Adélaïde, Melbourne, Sydney ; Schützenfest (en) à Adélaïde</t>
         </is>
       </c>
     </row>
